--- a/大屏展示功能/数据类型收集.xlsx
+++ b/大屏展示功能/数据类型收集.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,55 +28,447 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>教务系统</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+  <si>
+    <t>销售系统</t>
+    <rPh sb="0" eb="1">
+      <t>qiwy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>txx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年营业额</t>
+    <rPh sb="0" eb="1">
+      <t>rh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>apo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ptkm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年营业额目标</t>
+    <rPh sb="0" eb="1">
+      <t>rh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>apo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ptkm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hhsf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年营业额完成度</t>
+    <rPh sb="0" eb="1">
+      <t>rh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>apo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ptkm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pfd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yac</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总营业额月度分布</t>
+    <rPh sb="0" eb="1">
+      <t>ukn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>apo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ptkm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>eey</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wvdm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注用户</t>
+    <rPh sb="0" eb="1">
+      <t>udi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击用户</t>
+    <rPh sb="0" eb="1">
+      <t>hkf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览用户</t>
+    <rPh sb="0" eb="1">
+      <t>iyjt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买用户</t>
+    <rPh sb="0" eb="1">
+      <t>mqnu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复购用户</t>
+    <rPh sb="0" eb="1">
+      <t>tjt</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mqc</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教务</t>
     <rPh sb="0" eb="1">
       <t>fttl</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>txx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售系统</t>
-    <rPh sb="0" eb="1">
-      <t>qiwy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>txx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能硬件</t>
-    <rPh sb="0" eb="1">
-      <t>tdce</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入校区全国分布情况</t>
+    <rPh sb="0" eb="1">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wglg</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wvdm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ngu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外营地开业和接入比例</t>
+    <rPh sb="0" eb="1">
+      <t>ynq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gaog</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>t</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xxwg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制学校开业和接入比例</t>
+    <rPh sb="0" eb="1">
+      <t>wgj</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rmhj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ipsu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gaog</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>t</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xxwg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区营地开业和接入比例</t>
+    <rPh sb="0" eb="1">
+      <t>pya</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gaog</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>t</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xxwg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体</t>
+    <rPh sb="0" eb="1">
+      <t>ukw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <rPh sb="0" eb="1">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各校区签到率</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>twg</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各校区课程数和学生数对比</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yjt</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>t</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cfx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件</t>
+    <rPh sb="0" eb="1">
       <t>dgwr</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价系统</t>
-    <rPh sb="0" eb="1">
-      <t>ygww</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>txx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统模块</t>
-    <rPh sb="0" eb="1">
-      <t>txx</t>
+    <t>各城市硬件数</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市的硬件在线离线占比</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dhx</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ybx</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hkx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市硬件占比</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hkx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市硬件打卡数</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rshh</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上显示</t>
+    <rPh sb="0" eb="1">
+      <t>fbl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jof</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形图</t>
+    <rPh sb="0" eb="1">
+      <t>tsg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符显示</t>
+    <rPh sb="0" eb="1">
+      <t>pbt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jof</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆线图</t>
+    <rPh sb="0" eb="1">
+      <t>rrxg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图</t>
+    <rPh sb="0" eb="1">
+      <t>syud</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼图</t>
+    <rPh sb="0" eb="1">
+      <t>qnu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <rPh sb="0" eb="1">
+      <t>ovr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属模块</t>
+    <rPh sb="0" eb="1">
+      <t>wwnt</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>saf</t>
@@ -83,40 +476,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展示目标数据（自变量）</t>
+    <t>展示方式</t>
     <rPh sb="0" eb="1">
       <t>naf</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>hhsf</t>
+      <t>yya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日24点</t>
+    <rPh sb="0" eb="1">
+      <t>txjj</t>
     </rPh>
     <rPh sb="4" eb="5">
+      <t>hko</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上显示，以地图光点显示，打卡数越多，对应的光点越明亮，光点半径越大。</t>
+    <rPh sb="0" eb="1">
+      <t>fbl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jof</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nyw</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fbl</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>iq</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jof</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>rshh</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fhqq</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cfy</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>r</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iq</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fhgo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jey</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>iqh</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>uft</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fhgo</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动更新时间</t>
+    <rPh sb="0" eb="1">
+      <t>thf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jfu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入商户数</t>
+    <rPh sb="0" eb="1">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>umyn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团内外要有区分。</t>
+    <rPh sb="0" eb="1">
+      <t>wyl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mwq</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>s</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>aqw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>tliy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户数</t>
+    <rPh sb="0" eb="1">
+      <t>iymm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级数量</t>
+    <rPh sb="0" eb="1">
+      <t>gyxe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ovj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各商户营业额完成度</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>umyn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>apo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ptkm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pfd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yac</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制学校师生数</t>
+    <rPh sb="0" eb="1">
+      <t>wgj</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rmhj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ipsu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外营地师生数</t>
+    <rPh sb="0" eb="1">
+      <t>ynq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jgt</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区营地师生数</t>
+    <rPh sb="0" eb="1">
+      <t>pya</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望可以按照地点进行展示。</t>
+    <rPh sb="0" eb="1">
+      <t>qdyn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>skn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>rpjv</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fbh</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>naf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论点赞数</t>
+    <rPh sb="0" eb="1">
+      <t>ygyw</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tfqm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业下发数</t>
+    <rPh sb="0" eb="1">
+      <t>wto</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ghnt</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师中心登录次数的城市排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师中心30天累计登录次数&amp;人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生APP活跃数据？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  是否实现</t>
+    <rPh sb="2" eb="3">
+      <t>j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gik</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pugm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <rPh sb="0" eb="1">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据更新周期</t>
+    <rPh sb="0" eb="1">
       <t>ovr</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>thy</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yo</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据维度（因变量）</t>
-    <rPh sb="0" eb="1">
-      <t>ovr</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xwy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ld</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yojg</t>
+    <rPh sb="2" eb="3">
+      <t>gju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mfa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <rPh sb="0" eb="1">
+      <t>gd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <rPh sb="0" eb="1">
+      <t>tit</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>eee</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <rPh sb="0" eb="1">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <rPh sb="0" eb="1">
+      <t>jf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交订单数</t>
+    <rPh sb="0" eb="1">
+      <t>dnuq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ysuj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,7 +853,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,16 +869,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,18 +936,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -444,54 +1339,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="D17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B14:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/大屏展示功能/数据类型收集.xlsx
+++ b/大屏展示功能/数据类型收集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/granthe/Desktop/Grant/1智能硬件项目/0-系统需求收集/大屏展示功能/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/granthe/Desktop/Grant/1智能硬件项目/0-系统需求收集/ProductPrototype/大屏展示功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>销售系统</t>
     <rPh sb="0" eb="1">
@@ -764,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生APP活跃数据？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  是否实现</t>
     <rPh sb="2" eb="3">
       <t>j</t>
@@ -846,6 +842,43 @@
     <rPh sb="4" eb="5">
       <t>ovt</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天的成交订单</t>
+    <rPh sb="0" eb="1">
+      <t>ivg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dnuq</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ysuj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格</t>
+    <rPh sb="0" eb="1">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>stk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时</t>
+    <rPh sb="0" eb="1">
+      <t>pujf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生APP活跃数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,6 +1066,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,10 +1085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1339,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H34"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,11 +1383,11 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.2">
@@ -1374,14 +1407,14 @@
         <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1396,11 +1429,11 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1412,14 +1445,14 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1431,14 +1464,14 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1450,50 +1483,48 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
@@ -1504,13 +1535,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
@@ -1521,16 +1552,16 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>33</v>
@@ -1538,126 +1569,126 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
+      <c r="E17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="C18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -1668,15 +1699,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
+      <c r="B20" s="18"/>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>25</v>
@@ -1687,13 +1716,15 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>25</v>
@@ -1704,13 +1735,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -1721,115 +1752,115 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="8" t="s">
-        <v>46</v>
+      <c r="B28" s="15"/>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
@@ -1837,14 +1868,12 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>33</v>
@@ -1852,13 +1881,15 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
+      <c r="B32" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
@@ -1869,13 +1900,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
@@ -1886,16 +1917,16 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>33</v>
@@ -1903,16 +1934,33 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
